--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -20,30 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">テーブル論理名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テーブル物理名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">カラム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">論理名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桁数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コメント</t>
   </si>
 </sst>
 </file>
@@ -82,15 +61,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="true"/>
+      <sz val="14"/>
       <name val="Ricty Diminished Discord for Powerline"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Ricty Diminished Discord for Powerline"/>
       <family val="2"/>
       <charset val="1"/>
@@ -153,11 +132,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,57 +217,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="BC1" activeCellId="0" sqref="BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="20.27"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="17.94"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="57.24"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="1.55"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="10" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="15" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.04"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="26" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="1.55"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="32" min="30" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="42" min="35" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="46" min="44" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="50" min="48" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="54" min="52" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="59" min="56" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="61" style="0" width="9.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
